--- a/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_3d_euclidean_prj_origin_kernel.xlsx
+++ b/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_3d_euclidean_prj_origin_kernel.xlsx
@@ -10,6 +10,8 @@
     <sheet name="origin_sr_1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="origin_sr_0.5" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="origin_sr_0.3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="origin_sr_0.2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="origin_sr_0.1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1469,4 +1471,704 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>79.06002647081722</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5268754325283226</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7906002647081722</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7881996987171344</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>72.82156420038235</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8691184004147848</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7282156420038236</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7130066536254688</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>77.52644919073694</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9042292335691551</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7752644919073695</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7493171124705243</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>75.40757272986789</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7706138913830121</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7540757272986791</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7410829054687689</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>63.42035830759782</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9446471953454116</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6342035830759782</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6133089486365608</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>70.85865794686805</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7137422939762473</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7085865794686805</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.7070563022411082</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>69.92344224431007</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7142368741023044</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6992344224431007</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7052050859003379</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>67.58449467555947</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.906249089570095</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6758449467555947</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6625640705544481</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>74.71102691199751</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6475214721014102</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7471102691199751</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.7359862011245786</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>78.19219889445409</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6040098568114142</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.781921988944541</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7704154204319599</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>69.57516933537488</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8313989823373655</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6957516933537488</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6920861522603474</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>73.67321516622117</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.6658586826175451</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7367321516622116</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7294740218068311</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>90.5327035701001</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2349801874486729</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9053270357010008</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9048740040540586</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>84.10375522279604</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.3916743523819605</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8410375522279605</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8316740852049243</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>92.39162968537791</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2089964971140338</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9239162968537791</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9222841473696674</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>75.98548430349744</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.6622768294467823</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7598548430349744</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7511023206577813</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>53.73333679357088</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.059740502635638</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5373333679357087</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5349499895127047</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>59.98667808545057</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.828608980278174</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5998667808545056</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5836353588822163</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>58.47792800975787</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9389261196057002</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5847792800975787</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5850917208986326</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>53.44457997041498</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.092186983426412</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5344457997041496</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.4989529045685863</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>51.35087673768804</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.177222929584483</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5135087673768804</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.4614003438568172</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>52.35745983961799</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.086941122015317</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5235745983961799</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.5049529631040712</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>33.49414787325149</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.693995389342308</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.334941478732515</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.2413375872499856</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>47.08397131463075</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.267702048023542</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4708397131463075</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.442457646372956</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>46.0114706874627</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.103942579030991</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4601147068746269</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.4517190861051355</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>60.02119395496501</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8815475712219873</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6002119395496501</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.5967758998670376</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>49.81851054074862</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.08668532371521</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4981851054074863</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.4786374186335479</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>52.61619910206836</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.062213608622551</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5261619910206836</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5024133436338106</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>68.53623301239631</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7758532603581746</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.685362330123963</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.6714720024398526</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>73.57529044368896</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.5893931751721538</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7357529044368896</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7319553598178974</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>84.47694184205746</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.4206435759707044</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8447694184205746</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8450425636256741</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>56.33232121385133</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.004373544600223</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.5633232121385133</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.5420529459045951</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>